--- a/02-output/wine_country_stats/Q2E_Chile.xlsx
+++ b/02-output/wine_country_stats/Q2E_Chile.xlsx
@@ -25,52 +25,52 @@
     <t>price mean</t>
   </si>
   <si>
+    <t>price std</t>
+  </si>
+  <si>
+    <t>price min</t>
+  </si>
+  <si>
+    <t>price 25%</t>
+  </si>
+  <si>
+    <t>price 50%</t>
+  </si>
+  <si>
+    <t>price 75%</t>
+  </si>
+  <si>
+    <t>price max</t>
+  </si>
+  <si>
     <t>price median</t>
   </si>
   <si>
-    <t>price std</t>
-  </si>
-  <si>
-    <t>price min</t>
-  </si>
-  <si>
-    <t>price 25%</t>
-  </si>
-  <si>
-    <t>price 50%</t>
-  </si>
-  <si>
-    <t>price 75%</t>
-  </si>
-  <si>
-    <t>price max</t>
-  </si>
-  <si>
     <t>points count</t>
   </si>
   <si>
     <t>points mean</t>
   </si>
   <si>
+    <t>points std</t>
+  </si>
+  <si>
+    <t>points min</t>
+  </si>
+  <si>
+    <t>points 25%</t>
+  </si>
+  <si>
+    <t>points 50%</t>
+  </si>
+  <si>
+    <t>points 75%</t>
+  </si>
+  <si>
+    <t>points max</t>
+  </si>
+  <si>
     <t>points median</t>
-  </si>
-  <si>
-    <t>points std</t>
-  </si>
-  <si>
-    <t>points min</t>
-  </si>
-  <si>
-    <t>points 25%</t>
-  </si>
-  <si>
-    <t>points 50%</t>
-  </si>
-  <si>
-    <t>points 75%</t>
-  </si>
-  <si>
-    <t>points max</t>
   </si>
   <si>
     <t>Aconcagua Costa</t>
@@ -570,16 +570,15 @@
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -653,25 +652,25 @@
         <v>23.07407407407407</v>
       </c>
       <c r="D2">
+        <v>14.82182882395454</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>14.82182882395454</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>20</v>
       </c>
       <c r="H2">
+        <v>23.5</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="J2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>23.5</v>
-      </c>
-      <c r="J2">
-        <v>95</v>
       </c>
       <c r="L2">
         <v>27</v>
@@ -680,25 +679,25 @@
         <v>87.62962962962963</v>
       </c>
       <c r="N2">
+        <v>1.69042889751384</v>
+      </c>
+      <c r="O2">
+        <v>83</v>
+      </c>
+      <c r="P2">
+        <v>86.5</v>
+      </c>
+      <c r="Q2">
         <v>88</v>
       </c>
-      <c r="O2">
-        <v>1.69042889751384</v>
-      </c>
-      <c r="P2">
-        <v>83</v>
-      </c>
-      <c r="Q2">
-        <v>86.5</v>
-      </c>
       <c r="R2">
+        <v>89</v>
+      </c>
+      <c r="S2">
+        <v>90</v>
+      </c>
+      <c r="T2">
         <v>88</v>
-      </c>
-      <c r="S2">
-        <v>89</v>
-      </c>
-      <c r="T2">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -712,25 +711,25 @@
         <v>40.29824561403509</v>
       </c>
       <c r="D3">
+        <v>48.0250542696503</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>48.0250542696503</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
       <c r="H3">
+        <v>33.75</v>
+      </c>
+      <c r="I3">
+        <v>235</v>
+      </c>
+      <c r="J3">
         <v>20</v>
-      </c>
-      <c r="I3">
-        <v>33.75</v>
-      </c>
-      <c r="J3">
-        <v>235</v>
       </c>
       <c r="L3">
         <v>114</v>
@@ -739,25 +738,25 @@
         <v>88.19298245614036</v>
       </c>
       <c r="N3">
+        <v>2.676932576175314</v>
+      </c>
+      <c r="O3">
+        <v>80</v>
+      </c>
+      <c r="P3">
+        <v>86</v>
+      </c>
+      <c r="Q3">
         <v>88</v>
       </c>
-      <c r="O3">
-        <v>2.676932576175314</v>
-      </c>
-      <c r="P3">
-        <v>80</v>
-      </c>
-      <c r="Q3">
-        <v>86</v>
-      </c>
       <c r="R3">
+        <v>90</v>
+      </c>
+      <c r="S3">
+        <v>93</v>
+      </c>
+      <c r="T3">
         <v>88</v>
-      </c>
-      <c r="S3">
-        <v>90</v>
-      </c>
-      <c r="T3">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -771,25 +770,25 @@
         <v>39.75</v>
       </c>
       <c r="D4">
+        <v>31.11014157940959</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>12.75</v>
+      </c>
+      <c r="G4">
         <v>23.5</v>
       </c>
-      <c r="E4">
-        <v>31.11014157940959</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>12.75</v>
-      </c>
       <c r="H4">
+        <v>71.25</v>
+      </c>
+      <c r="I4">
+        <v>82</v>
+      </c>
+      <c r="J4">
         <v>23.5</v>
-      </c>
-      <c r="I4">
-        <v>71.25</v>
-      </c>
-      <c r="J4">
-        <v>82</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -798,25 +797,25 @@
         <v>88.08333333333333</v>
       </c>
       <c r="N4">
+        <v>2.906367096044423</v>
+      </c>
+      <c r="O4">
+        <v>84</v>
+      </c>
+      <c r="P4">
+        <v>86.5</v>
+      </c>
+      <c r="Q4">
         <v>87.5</v>
       </c>
-      <c r="O4">
-        <v>2.906367096044423</v>
-      </c>
-      <c r="P4">
-        <v>84</v>
-      </c>
-      <c r="Q4">
-        <v>86.5</v>
-      </c>
       <c r="R4">
+        <v>90.25</v>
+      </c>
+      <c r="S4">
+        <v>92</v>
+      </c>
+      <c r="T4">
         <v>87.5</v>
-      </c>
-      <c r="S4">
-        <v>90.25</v>
-      </c>
-      <c r="T4">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -830,25 +829,25 @@
         <v>83.625</v>
       </c>
       <c r="D5">
+        <v>59.03736710157148</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>24.25</v>
+      </c>
+      <c r="G5">
         <v>87.5</v>
       </c>
-      <c r="E5">
-        <v>59.03736710157148</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>24.25</v>
-      </c>
       <c r="H5">
+        <v>131.25</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5">
         <v>87.5</v>
-      </c>
-      <c r="I5">
-        <v>131.25</v>
-      </c>
-      <c r="J5">
-        <v>150</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -857,25 +856,25 @@
         <v>91.125</v>
       </c>
       <c r="N5">
+        <v>0.9910312089651149</v>
+      </c>
+      <c r="O5">
+        <v>90</v>
+      </c>
+      <c r="P5">
+        <v>90.75</v>
+      </c>
+      <c r="Q5">
         <v>91</v>
       </c>
-      <c r="O5">
-        <v>0.9910312089651149</v>
-      </c>
-      <c r="P5">
-        <v>90</v>
-      </c>
-      <c r="Q5">
-        <v>90.75</v>
-      </c>
       <c r="R5">
+        <v>91.25</v>
+      </c>
+      <c r="S5">
+        <v>93</v>
+      </c>
+      <c r="T5">
         <v>91</v>
-      </c>
-      <c r="S5">
-        <v>91.25</v>
-      </c>
-      <c r="T5">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -889,25 +888,25 @@
         <v>14.97619047619048</v>
       </c>
       <c r="D6">
+        <v>4.458415420347782</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>4.458415420347782</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
         <v>15</v>
-      </c>
-      <c r="I6">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
       </c>
       <c r="L6">
         <v>42</v>
@@ -916,25 +915,25 @@
         <v>85.57142857142857</v>
       </c>
       <c r="N6">
+        <v>1.989519578518921</v>
+      </c>
+      <c r="O6">
+        <v>82</v>
+      </c>
+      <c r="P6">
+        <v>84</v>
+      </c>
+      <c r="Q6">
         <v>85.5</v>
       </c>
-      <c r="O6">
-        <v>1.989519578518921</v>
-      </c>
-      <c r="P6">
-        <v>82</v>
-      </c>
-      <c r="Q6">
-        <v>84</v>
-      </c>
       <c r="R6">
+        <v>87</v>
+      </c>
+      <c r="S6">
+        <v>90</v>
+      </c>
+      <c r="T6">
         <v>85.5</v>
-      </c>
-      <c r="S6">
-        <v>87</v>
-      </c>
-      <c r="T6">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -948,25 +947,25 @@
         <v>26.50738916256158</v>
       </c>
       <c r="D7">
+        <v>24.05097092750568</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>24.05097092750568</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
       <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>149</v>
+      </c>
+      <c r="J7">
         <v>18</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>149</v>
       </c>
       <c r="L7">
         <v>203</v>
@@ -975,25 +974,25 @@
         <v>87.30049261083744</v>
       </c>
       <c r="N7">
+        <v>2.765299431210309</v>
+      </c>
+      <c r="O7">
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <v>85</v>
+      </c>
+      <c r="Q7">
         <v>87</v>
       </c>
-      <c r="O7">
-        <v>2.765299431210309</v>
-      </c>
-      <c r="P7">
-        <v>80</v>
-      </c>
-      <c r="Q7">
-        <v>85</v>
-      </c>
       <c r="R7">
+        <v>89</v>
+      </c>
+      <c r="S7">
+        <v>94</v>
+      </c>
+      <c r="T7">
         <v>87</v>
-      </c>
-      <c r="S7">
-        <v>89</v>
-      </c>
-      <c r="T7">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1007,25 +1006,25 @@
         <v>21</v>
       </c>
       <c r="D8">
+        <v>9.539392014169456</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>15.5</v>
+      </c>
+      <c r="G8">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>9.539392014169456</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>15.5</v>
-      </c>
       <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
         <v>16</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>32</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1034,25 +1033,25 @@
         <v>86</v>
       </c>
       <c r="N8">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="P8">
-        <v>85</v>
+        <v>85.5</v>
       </c>
       <c r="Q8">
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="R8">
-        <v>86</v>
+        <v>86.5</v>
       </c>
       <c r="S8">
-        <v>86.5</v>
+        <v>87</v>
       </c>
       <c r="T8">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1066,25 +1065,25 @@
         <v>17.56492411467116</v>
       </c>
       <c r="D9">
+        <v>8.738095224050236</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>8.738095224050236</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
         <v>15</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
       </c>
       <c r="L9">
         <v>593</v>
@@ -1093,25 +1092,25 @@
         <v>86.25463743676222</v>
       </c>
       <c r="N9">
-        <v>86</v>
+        <v>2.337470099190498</v>
       </c>
       <c r="O9">
-        <v>2.337470099190498</v>
+        <v>80</v>
       </c>
       <c r="P9">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S9">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="T9">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1124,7 +1123,7 @@
       <c r="C10">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>12</v>
       </c>
       <c r="F10">
@@ -1148,7 +1147,7 @@
       <c r="M10">
         <v>87</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>87</v>
       </c>
       <c r="P10">
@@ -1178,25 +1177,25 @@
         <v>20.88888888888889</v>
       </c>
       <c r="D11">
+        <v>8.432740427115679</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>8.432740427115679</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
       <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
         <v>16</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>35</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1205,25 +1204,25 @@
         <v>88.88888888888889</v>
       </c>
       <c r="N11">
+        <v>1.536590742882148</v>
+      </c>
+      <c r="O11">
+        <v>86</v>
+      </c>
+      <c r="P11">
+        <v>88</v>
+      </c>
+      <c r="Q11">
         <v>89</v>
       </c>
-      <c r="O11">
-        <v>1.536590742882148</v>
-      </c>
-      <c r="P11">
-        <v>86</v>
-      </c>
-      <c r="Q11">
-        <v>88</v>
-      </c>
       <c r="R11">
+        <v>90</v>
+      </c>
+      <c r="S11">
+        <v>91</v>
+      </c>
+      <c r="T11">
         <v>89</v>
-      </c>
-      <c r="S11">
-        <v>90</v>
-      </c>
-      <c r="T11">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1237,25 +1236,25 @@
         <v>12.28939828080229</v>
       </c>
       <c r="D12">
+        <v>6.708583190957464</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>6.708583190957464</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
       <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12">
         <v>11</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>60</v>
       </c>
       <c r="L12">
         <v>349</v>
@@ -1264,25 +1263,25 @@
         <v>84.69340974212034</v>
       </c>
       <c r="N12">
+        <v>2.074887368780101</v>
+      </c>
+      <c r="O12">
+        <v>80</v>
+      </c>
+      <c r="P12">
+        <v>83</v>
+      </c>
+      <c r="Q12">
         <v>85</v>
       </c>
-      <c r="O12">
-        <v>2.074887368780101</v>
-      </c>
-      <c r="P12">
-        <v>80</v>
-      </c>
-      <c r="Q12">
-        <v>83</v>
-      </c>
       <c r="R12">
+        <v>86</v>
+      </c>
+      <c r="S12">
+        <v>92</v>
+      </c>
+      <c r="T12">
         <v>85</v>
-      </c>
-      <c r="S12">
-        <v>86</v>
-      </c>
-      <c r="T12">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1296,25 +1295,25 @@
         <v>23.11904761904762</v>
       </c>
       <c r="D13">
+        <v>25.71248380575264</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12.25</v>
+      </c>
+      <c r="G13">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>25.71248380575264</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>12.25</v>
-      </c>
       <c r="H13">
+        <v>20.75</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
         <v>14</v>
-      </c>
-      <c r="I13">
-        <v>20.75</v>
-      </c>
-      <c r="J13">
-        <v>150</v>
       </c>
       <c r="L13">
         <v>42</v>
@@ -1323,25 +1322,25 @@
         <v>86.16666666666667</v>
       </c>
       <c r="N13">
-        <v>86</v>
+        <v>2.593769896583497</v>
       </c>
       <c r="O13">
-        <v>2.593769896583497</v>
+        <v>82</v>
       </c>
       <c r="P13">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q13">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R13">
-        <v>86</v>
+        <v>87.75</v>
       </c>
       <c r="S13">
-        <v>87.75</v>
+        <v>92</v>
       </c>
       <c r="T13">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1355,25 +1354,25 @@
         <v>17</v>
       </c>
       <c r="D14">
+        <v>2.645751311064591</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>15.5</v>
+      </c>
+      <c r="G14">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>2.645751311064591</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>15.5</v>
-      </c>
       <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
         <v>16</v>
-      </c>
-      <c r="I14">
-        <v>18</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1382,16 +1381,16 @@
         <v>85.33333333333333</v>
       </c>
       <c r="N14">
-        <v>86</v>
+        <v>1.154700538379252</v>
       </c>
       <c r="O14">
-        <v>1.154700538379252</v>
+        <v>84</v>
       </c>
       <c r="P14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R14">
         <v>86</v>
@@ -1413,7 +1412,7 @@
       <c r="C15">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>25</v>
       </c>
       <c r="F15">
@@ -1437,7 +1436,7 @@
       <c r="M15">
         <v>88</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>88</v>
       </c>
       <c r="P15">
@@ -1467,25 +1466,25 @@
         <v>21.5</v>
       </c>
       <c r="D16">
+        <v>15.32377831405107</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>12.75</v>
+      </c>
+      <c r="G16">
         <v>17</v>
       </c>
-      <c r="E16">
-        <v>15.32377831405107</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>12.75</v>
-      </c>
       <c r="H16">
+        <v>21.25</v>
+      </c>
+      <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="J16">
         <v>17</v>
-      </c>
-      <c r="I16">
-        <v>21.25</v>
-      </c>
-      <c r="J16">
-        <v>65</v>
       </c>
       <c r="L16">
         <v>12</v>
@@ -1494,25 +1493,25 @@
         <v>86.5</v>
       </c>
       <c r="N16">
+        <v>2.504541329810166</v>
+      </c>
+      <c r="O16">
+        <v>83</v>
+      </c>
+      <c r="P16">
+        <v>84</v>
+      </c>
+      <c r="Q16">
         <v>87</v>
-      </c>
-      <c r="O16">
-        <v>2.504541329810166</v>
-      </c>
-      <c r="P16">
-        <v>83</v>
-      </c>
-      <c r="Q16">
-        <v>84</v>
       </c>
       <c r="R16">
         <v>87</v>
       </c>
       <c r="S16">
+        <v>92</v>
+      </c>
+      <c r="T16">
         <v>87</v>
-      </c>
-      <c r="T16">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1526,25 +1525,25 @@
         <v>22.23048780487805</v>
       </c>
       <c r="D17">
+        <v>22.19365972791077</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>22.19365972791077</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>12</v>
-      </c>
       <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
         <v>15</v>
-      </c>
-      <c r="I17">
-        <v>23</v>
-      </c>
-      <c r="J17">
-        <v>300</v>
       </c>
       <c r="L17">
         <v>820</v>
@@ -1553,25 +1552,25 @@
         <v>87.09756097560975</v>
       </c>
       <c r="N17">
+        <v>2.714361731910846</v>
+      </c>
+      <c r="O17">
+        <v>80</v>
+      </c>
+      <c r="P17">
+        <v>85</v>
+      </c>
+      <c r="Q17">
         <v>87</v>
       </c>
-      <c r="O17">
-        <v>2.714361731910846</v>
-      </c>
-      <c r="P17">
-        <v>80</v>
-      </c>
-      <c r="Q17">
-        <v>85</v>
-      </c>
       <c r="R17">
+        <v>89</v>
+      </c>
+      <c r="S17">
+        <v>95</v>
+      </c>
+      <c r="T17">
         <v>87</v>
-      </c>
-      <c r="S17">
-        <v>89</v>
-      </c>
-      <c r="T17">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1585,25 +1584,25 @@
         <v>15.28270042194093</v>
       </c>
       <c r="D18">
+        <v>10.77270150712288</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <v>12</v>
       </c>
-      <c r="E18">
-        <v>10.77270150712288</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
       <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+      <c r="J18">
         <v>12</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>90</v>
       </c>
       <c r="L18">
         <v>237</v>
@@ -1612,25 +1611,25 @@
         <v>85.63291139240506</v>
       </c>
       <c r="N18">
+        <v>2.472786881729683</v>
+      </c>
+      <c r="O18">
+        <v>80</v>
+      </c>
+      <c r="P18">
+        <v>84</v>
+      </c>
+      <c r="Q18">
         <v>85</v>
       </c>
-      <c r="O18">
-        <v>2.472786881729683</v>
-      </c>
-      <c r="P18">
-        <v>80</v>
-      </c>
-      <c r="Q18">
-        <v>84</v>
-      </c>
       <c r="R18">
+        <v>87</v>
+      </c>
+      <c r="S18">
+        <v>93</v>
+      </c>
+      <c r="T18">
         <v>85</v>
-      </c>
-      <c r="S18">
-        <v>87</v>
-      </c>
-      <c r="T18">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1644,16 +1643,16 @@
         <v>12.66666666666667</v>
       </c>
       <c r="D19">
+        <v>0.5773502691896257</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>12.5</v>
+      </c>
+      <c r="G19">
         <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0.5773502691896257</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>12.5</v>
       </c>
       <c r="H19">
         <v>13</v>
@@ -1671,10 +1670,10 @@
         <v>86.66666666666667</v>
       </c>
       <c r="N19">
-        <v>86</v>
+        <v>1.154700538379252</v>
       </c>
       <c r="O19">
-        <v>1.154700538379252</v>
+        <v>86</v>
       </c>
       <c r="P19">
         <v>86</v>
@@ -1683,13 +1682,13 @@
         <v>86</v>
       </c>
       <c r="R19">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S19">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1702,7 +1701,7 @@
       <c r="C20">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>12</v>
       </c>
       <c r="F20">
@@ -1726,7 +1725,7 @@
       <c r="M20">
         <v>86</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>86</v>
       </c>
       <c r="P20">
@@ -1756,25 +1755,25 @@
         <v>18.37735849056604</v>
       </c>
       <c r="D21">
+        <v>10.72600437307951</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>10.72600437307951</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
       <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
         <v>15</v>
-      </c>
-      <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>60</v>
       </c>
       <c r="L21">
         <v>53</v>
@@ -1783,25 +1782,25 @@
         <v>85.9622641509434</v>
       </c>
       <c r="N21">
-        <v>86</v>
+        <v>2.385551574269109</v>
       </c>
       <c r="O21">
-        <v>2.385551574269109</v>
+        <v>81</v>
       </c>
       <c r="P21">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q21">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R21">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S21">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T21">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1815,25 +1814,25 @@
         <v>24.08333333333333</v>
       </c>
       <c r="D22">
+        <v>11.58728404394885</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
         <v>19.5</v>
       </c>
-      <c r="E22">
-        <v>11.58728404394885</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
       <c r="H22">
+        <v>32.25</v>
+      </c>
+      <c r="I22">
+        <v>43</v>
+      </c>
+      <c r="J22">
         <v>19.5</v>
-      </c>
-      <c r="I22">
-        <v>32.25</v>
-      </c>
-      <c r="J22">
-        <v>43</v>
       </c>
       <c r="L22">
         <v>12</v>
@@ -1842,25 +1841,25 @@
         <v>85.83333333333333</v>
       </c>
       <c r="N22">
+        <v>3.904154741096239</v>
+      </c>
+      <c r="O22">
+        <v>80</v>
+      </c>
+      <c r="P22">
+        <v>83.75</v>
+      </c>
+      <c r="Q22">
         <v>85</v>
       </c>
-      <c r="O22">
-        <v>3.904154741096239</v>
-      </c>
-      <c r="P22">
-        <v>80</v>
-      </c>
-      <c r="Q22">
-        <v>83.75</v>
-      </c>
       <c r="R22">
+        <v>89.25</v>
+      </c>
+      <c r="S22">
+        <v>91</v>
+      </c>
+      <c r="T22">
         <v>85</v>
-      </c>
-      <c r="S22">
-        <v>89.25</v>
-      </c>
-      <c r="T22">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1874,25 +1873,25 @@
         <v>19.35135135135135</v>
       </c>
       <c r="D23">
+        <v>7.021168572277518</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
         <v>18</v>
       </c>
-      <c r="E23">
-        <v>7.021168572277518</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
       <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>49</v>
+      </c>
+      <c r="J23">
         <v>18</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-      <c r="J23">
-        <v>49</v>
       </c>
       <c r="L23">
         <v>222</v>
@@ -1901,25 +1900,25 @@
         <v>86.62612612612612</v>
       </c>
       <c r="N23">
+        <v>2.167184787361764</v>
+      </c>
+      <c r="O23">
+        <v>80</v>
+      </c>
+      <c r="P23">
+        <v>85</v>
+      </c>
+      <c r="Q23">
         <v>87</v>
       </c>
-      <c r="O23">
-        <v>2.167184787361764</v>
-      </c>
-      <c r="P23">
-        <v>80</v>
-      </c>
-      <c r="Q23">
-        <v>85</v>
-      </c>
       <c r="R23">
+        <v>88</v>
+      </c>
+      <c r="S23">
+        <v>91</v>
+      </c>
+      <c r="T23">
         <v>87</v>
-      </c>
-      <c r="S23">
-        <v>88</v>
-      </c>
-      <c r="T23">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1933,25 +1932,25 @@
         <v>11.5</v>
       </c>
       <c r="D24">
+        <v>2.121320343559642</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10.75</v>
+      </c>
+      <c r="G24">
         <v>11.5</v>
       </c>
-      <c r="E24">
-        <v>2.121320343559642</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>10.75</v>
-      </c>
       <c r="H24">
+        <v>12.25</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
         <v>11.5</v>
-      </c>
-      <c r="I24">
-        <v>12.25</v>
-      </c>
-      <c r="J24">
-        <v>13</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -1960,25 +1959,25 @@
         <v>86.5</v>
       </c>
       <c r="N24">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="O24">
+        <v>86</v>
+      </c>
+      <c r="P24">
+        <v>86.25</v>
+      </c>
+      <c r="Q24">
         <v>86.5</v>
       </c>
-      <c r="O24">
-        <v>0.7071067811865476</v>
-      </c>
-      <c r="P24">
-        <v>86</v>
-      </c>
-      <c r="Q24">
-        <v>86.25</v>
-      </c>
       <c r="R24">
+        <v>86.75</v>
+      </c>
+      <c r="S24">
+        <v>87</v>
+      </c>
+      <c r="T24">
         <v>86.5</v>
-      </c>
-      <c r="S24">
-        <v>86.75</v>
-      </c>
-      <c r="T24">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1992,25 +1991,25 @@
         <v>18.44117647058824</v>
       </c>
       <c r="D25">
+        <v>8.65233160290159</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
         <v>17.5</v>
       </c>
-      <c r="E25">
-        <v>8.65233160290159</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>13</v>
-      </c>
       <c r="H25">
+        <v>21.75</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
         <v>17.5</v>
-      </c>
-      <c r="I25">
-        <v>21.75</v>
-      </c>
-      <c r="J25">
-        <v>60</v>
       </c>
       <c r="L25">
         <v>102</v>
@@ -2019,25 +2018,25 @@
         <v>86.18627450980392</v>
       </c>
       <c r="N25">
-        <v>86</v>
+        <v>2.49248530848372</v>
       </c>
       <c r="O25">
-        <v>2.49248530848372</v>
+        <v>80</v>
       </c>
       <c r="P25">
-        <v>80</v>
+        <v>84.25</v>
       </c>
       <c r="Q25">
-        <v>84.25</v>
+        <v>86</v>
       </c>
       <c r="R25">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S25">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="T25">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2051,25 +2050,25 @@
         <v>20.68181818181818</v>
       </c>
       <c r="D26">
+        <v>10.11075035431459</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>13.25</v>
+      </c>
+      <c r="G26">
         <v>20</v>
       </c>
-      <c r="E26">
-        <v>10.11075035431459</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>13.25</v>
-      </c>
       <c r="H26">
+        <v>23.75</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
         <v>20</v>
-      </c>
-      <c r="I26">
-        <v>23.75</v>
-      </c>
-      <c r="J26">
-        <v>60</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2078,25 +2077,25 @@
         <v>86.36363636363636</v>
       </c>
       <c r="N26">
-        <v>86</v>
+        <v>2.517471417446946</v>
       </c>
       <c r="O26">
-        <v>2.517471417446946</v>
+        <v>82</v>
       </c>
       <c r="P26">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R26">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S26">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T26">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2110,25 +2109,25 @@
         <v>22.2</v>
       </c>
       <c r="D27">
+        <v>14.34389655641216</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>14.25</v>
+      </c>
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="E27">
-        <v>14.34389655641216</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="G27">
-        <v>14.25</v>
-      </c>
       <c r="H27">
+        <v>23.5</v>
+      </c>
+      <c r="I27">
+        <v>70</v>
+      </c>
+      <c r="J27">
         <v>20</v>
-      </c>
-      <c r="I27">
-        <v>23.5</v>
-      </c>
-      <c r="J27">
-        <v>70</v>
       </c>
       <c r="L27">
         <v>20</v>
@@ -2137,25 +2136,25 @@
         <v>86.3</v>
       </c>
       <c r="N27">
+        <v>3.010507913083246</v>
+      </c>
+      <c r="O27">
+        <v>82</v>
+      </c>
+      <c r="P27">
+        <v>84</v>
+      </c>
+      <c r="Q27">
         <v>86.5</v>
       </c>
-      <c r="O27">
-        <v>3.010507913083246</v>
-      </c>
-      <c r="P27">
-        <v>82</v>
-      </c>
-      <c r="Q27">
-        <v>84</v>
-      </c>
       <c r="R27">
+        <v>88.25</v>
+      </c>
+      <c r="S27">
+        <v>92</v>
+      </c>
+      <c r="T27">
         <v>86.5</v>
-      </c>
-      <c r="S27">
-        <v>88.25</v>
-      </c>
-      <c r="T27">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2169,25 +2168,25 @@
         <v>13.44</v>
       </c>
       <c r="D28">
+        <v>6.090155991434046</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
         <v>11</v>
       </c>
-      <c r="E28">
-        <v>6.090155991434046</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
       <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
         <v>11</v>
-      </c>
-      <c r="I28">
-        <v>17</v>
-      </c>
-      <c r="J28">
-        <v>32</v>
       </c>
       <c r="L28">
         <v>25</v>
@@ -2196,25 +2195,25 @@
         <v>85.8</v>
       </c>
       <c r="N28">
-        <v>86</v>
+        <v>2.121320343559643</v>
       </c>
       <c r="O28">
-        <v>2.121320343559643</v>
+        <v>82</v>
       </c>
       <c r="P28">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R28">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S28">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T28">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2228,25 +2227,25 @@
         <v>24.43188854489164</v>
       </c>
       <c r="D29">
+        <v>33.66691618057762</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>33.66691618057762</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-      <c r="G29">
-        <v>12</v>
-      </c>
       <c r="H29">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+      <c r="J29">
         <v>15</v>
-      </c>
-      <c r="I29">
-        <v>24</v>
-      </c>
-      <c r="J29">
-        <v>400</v>
       </c>
       <c r="L29">
         <v>646</v>
@@ -2255,25 +2254,25 @@
         <v>86.83591331269349</v>
       </c>
       <c r="N29">
+        <v>2.823106983544136</v>
+      </c>
+      <c r="O29">
+        <v>80</v>
+      </c>
+      <c r="P29">
+        <v>85</v>
+      </c>
+      <c r="Q29">
         <v>87</v>
       </c>
-      <c r="O29">
-        <v>2.823106983544136</v>
-      </c>
-      <c r="P29">
-        <v>80</v>
-      </c>
-      <c r="Q29">
-        <v>85</v>
-      </c>
       <c r="R29">
+        <v>89</v>
+      </c>
+      <c r="S29">
+        <v>93</v>
+      </c>
+      <c r="T29">
         <v>87</v>
-      </c>
-      <c r="S29">
-        <v>89</v>
-      </c>
-      <c r="T29">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2287,16 +2286,16 @@
         <v>14.33333333333333</v>
       </c>
       <c r="D30">
+        <v>1.154700538379252</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
         <v>15</v>
-      </c>
-      <c r="E30">
-        <v>1.154700538379252</v>
-      </c>
-      <c r="F30">
-        <v>13</v>
-      </c>
-      <c r="G30">
-        <v>14</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -2314,10 +2313,10 @@
         <v>88</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>88</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
       </c>
       <c r="P30">
         <v>88</v>
@@ -2346,10 +2345,10 @@
         <v>37.66666666666666</v>
       </c>
       <c r="D31">
+        <v>4.618802153517007</v>
+      </c>
+      <c r="E31">
         <v>35</v>
-      </c>
-      <c r="E31">
-        <v>4.618802153517007</v>
       </c>
       <c r="F31">
         <v>35</v>
@@ -2358,13 +2357,13 @@
         <v>35</v>
       </c>
       <c r="H31">
+        <v>39</v>
+      </c>
+      <c r="I31">
+        <v>43</v>
+      </c>
+      <c r="J31">
         <v>35</v>
-      </c>
-      <c r="I31">
-        <v>39</v>
-      </c>
-      <c r="J31">
-        <v>43</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2373,25 +2372,25 @@
         <v>85.33333333333333</v>
       </c>
       <c r="N31">
+        <v>2.516611478423583</v>
+      </c>
+      <c r="O31">
+        <v>83</v>
+      </c>
+      <c r="P31">
+        <v>84</v>
+      </c>
+      <c r="Q31">
         <v>85</v>
       </c>
-      <c r="O31">
-        <v>2.516611478423583</v>
-      </c>
-      <c r="P31">
-        <v>83</v>
-      </c>
-      <c r="Q31">
-        <v>84</v>
-      </c>
       <c r="R31">
+        <v>86.5</v>
+      </c>
+      <c r="S31">
+        <v>88</v>
+      </c>
+      <c r="T31">
         <v>85</v>
-      </c>
-      <c r="S31">
-        <v>86.5</v>
-      </c>
-      <c r="T31">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2405,25 +2404,25 @@
         <v>23.33333333333333</v>
       </c>
       <c r="D32">
+        <v>8.620837579940256</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="G32">
         <v>19.5</v>
       </c>
-      <c r="E32">
-        <v>8.620837579940256</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>17</v>
-      </c>
       <c r="H32">
+        <v>24.75</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32">
         <v>19.5</v>
-      </c>
-      <c r="I32">
-        <v>24.75</v>
-      </c>
-      <c r="J32">
-        <v>40</v>
       </c>
       <c r="L32">
         <v>24</v>
@@ -2432,25 +2431,25 @@
         <v>88.79166666666667</v>
       </c>
       <c r="N32">
+        <v>2.466808652396094</v>
+      </c>
+      <c r="O32">
+        <v>86</v>
+      </c>
+      <c r="P32">
+        <v>87</v>
+      </c>
+      <c r="Q32">
         <v>88.5</v>
       </c>
-      <c r="O32">
-        <v>2.466808652396094</v>
-      </c>
-      <c r="P32">
-        <v>86</v>
-      </c>
-      <c r="Q32">
-        <v>87</v>
-      </c>
       <c r="R32">
+        <v>91</v>
+      </c>
+      <c r="S32">
+        <v>93</v>
+      </c>
+      <c r="T32">
         <v>88.5</v>
-      </c>
-      <c r="S32">
-        <v>91</v>
-      </c>
-      <c r="T32">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2464,25 +2463,25 @@
         <v>16.9892703862661</v>
       </c>
       <c r="D33">
+        <v>11.59615679308213</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
         <v>13</v>
       </c>
-      <c r="E33">
-        <v>11.59615679308213</v>
-      </c>
-      <c r="F33">
-        <v>6</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
       <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
         <v>13</v>
-      </c>
-      <c r="I33">
-        <v>18</v>
-      </c>
-      <c r="J33">
-        <v>100</v>
       </c>
       <c r="L33">
         <v>466</v>
@@ -2491,25 +2490,25 @@
         <v>85.96781115879828</v>
       </c>
       <c r="N33">
-        <v>86</v>
+        <v>2.566331705855142</v>
       </c>
       <c r="O33">
-        <v>2.566331705855142</v>
+        <v>80</v>
       </c>
       <c r="P33">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q33">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R33">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S33">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T33">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2523,25 +2522,25 @@
         <v>10</v>
       </c>
       <c r="D34">
-        <v>9.5</v>
+        <v>2.138089935299395</v>
       </c>
       <c r="E34">
-        <v>2.138089935299395</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H34">
+        <v>11.5</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
         <v>9.5</v>
-      </c>
-      <c r="I34">
-        <v>11.5</v>
-      </c>
-      <c r="J34">
-        <v>13</v>
       </c>
       <c r="L34">
         <v>8</v>
@@ -2550,25 +2549,25 @@
         <v>83.375</v>
       </c>
       <c r="N34">
+        <v>2.503568881188841</v>
+      </c>
+      <c r="O34">
+        <v>81</v>
+      </c>
+      <c r="P34">
+        <v>82</v>
+      </c>
+      <c r="Q34">
         <v>82.5</v>
       </c>
-      <c r="O34">
-        <v>2.503568881188841</v>
-      </c>
-      <c r="P34">
-        <v>81</v>
-      </c>
-      <c r="Q34">
-        <v>82</v>
-      </c>
       <c r="R34">
+        <v>84</v>
+      </c>
+      <c r="S34">
+        <v>89</v>
+      </c>
+      <c r="T34">
         <v>82.5</v>
-      </c>
-      <c r="S34">
-        <v>84</v>
-      </c>
-      <c r="T34">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2582,25 +2581,25 @@
         <v>38.5</v>
       </c>
       <c r="D35">
+        <v>35.16288627841251</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35">
         <v>25.5</v>
       </c>
-      <c r="E35">
-        <v>35.16288627841251</v>
-      </c>
-      <c r="F35">
-        <v>13</v>
-      </c>
-      <c r="G35">
-        <v>22</v>
-      </c>
       <c r="H35">
+        <v>38.5</v>
+      </c>
+      <c r="I35">
+        <v>200</v>
+      </c>
+      <c r="J35">
         <v>25.5</v>
-      </c>
-      <c r="I35">
-        <v>38.5</v>
-      </c>
-      <c r="J35">
-        <v>200</v>
       </c>
       <c r="L35">
         <v>36</v>
@@ -2609,25 +2608,25 @@
         <v>89.33333333333333</v>
       </c>
       <c r="N35">
+        <v>2.390457218668787</v>
+      </c>
+      <c r="O35">
+        <v>82</v>
+      </c>
+      <c r="P35">
+        <v>88</v>
+      </c>
+      <c r="Q35">
         <v>90</v>
       </c>
-      <c r="O35">
-        <v>2.390457218668787</v>
-      </c>
-      <c r="P35">
-        <v>82</v>
-      </c>
-      <c r="Q35">
-        <v>88</v>
-      </c>
       <c r="R35">
+        <v>91</v>
+      </c>
+      <c r="S35">
+        <v>94</v>
+      </c>
+      <c r="T35">
         <v>90</v>
-      </c>
-      <c r="S35">
-        <v>91</v>
-      </c>
-      <c r="T35">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2641,25 +2640,25 @@
         <v>41.5</v>
       </c>
       <c r="D36">
+        <v>18.46889276594566</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>28</v>
+      </c>
+      <c r="G36">
         <v>37.5</v>
       </c>
-      <c r="E36">
-        <v>18.46889276594566</v>
-      </c>
-      <c r="F36">
-        <v>25</v>
-      </c>
-      <c r="G36">
-        <v>28</v>
-      </c>
       <c r="H36">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>74</v>
+      </c>
+      <c r="J36">
         <v>37.5</v>
-      </c>
-      <c r="I36">
-        <v>47</v>
-      </c>
-      <c r="J36">
-        <v>74</v>
       </c>
       <c r="L36">
         <v>6</v>
@@ -2668,25 +2667,25 @@
         <v>90.16666666666667</v>
       </c>
       <c r="N36">
+        <v>1.940790217067952</v>
+      </c>
+      <c r="O36">
+        <v>87</v>
+      </c>
+      <c r="P36">
+        <v>89.25</v>
+      </c>
+      <c r="Q36">
         <v>90.5</v>
       </c>
-      <c r="O36">
-        <v>1.940790217067952</v>
-      </c>
-      <c r="P36">
-        <v>87</v>
-      </c>
-      <c r="Q36">
-        <v>89.25</v>
-      </c>
       <c r="R36">
+        <v>91.75</v>
+      </c>
+      <c r="S36">
+        <v>92</v>
+      </c>
+      <c r="T36">
         <v>90.5</v>
-      </c>
-      <c r="S36">
-        <v>91.75</v>
-      </c>
-      <c r="T36">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2700,25 +2699,25 @@
         <v>84.5</v>
       </c>
       <c r="D37">
+        <v>41.18578918473253</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>54.75</v>
+      </c>
+      <c r="G37">
         <v>95</v>
       </c>
-      <c r="E37">
-        <v>41.18578918473253</v>
-      </c>
-      <c r="F37">
-        <v>21</v>
-      </c>
-      <c r="G37">
-        <v>54.75</v>
-      </c>
       <c r="H37">
+        <v>115.75</v>
+      </c>
+      <c r="I37">
+        <v>150</v>
+      </c>
+      <c r="J37">
         <v>95</v>
-      </c>
-      <c r="I37">
-        <v>115.75</v>
-      </c>
-      <c r="J37">
-        <v>150</v>
       </c>
       <c r="L37">
         <v>14</v>
@@ -2727,25 +2726,25 @@
         <v>91.85714285714286</v>
       </c>
       <c r="N37">
+        <v>1.791309914222329</v>
+      </c>
+      <c r="O37">
+        <v>87</v>
+      </c>
+      <c r="P37">
         <v>92</v>
-      </c>
-      <c r="O37">
-        <v>1.791309914222329</v>
-      </c>
-      <c r="P37">
-        <v>87</v>
       </c>
       <c r="Q37">
         <v>92</v>
       </c>
       <c r="R37">
+        <v>93</v>
+      </c>
+      <c r="S37">
+        <v>94</v>
+      </c>
+      <c r="T37">
         <v>92</v>
-      </c>
-      <c r="S37">
-        <v>93</v>
-      </c>
-      <c r="T37">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2759,25 +2758,25 @@
         <v>13.90123456790123</v>
       </c>
       <c r="D38">
+        <v>7.143784925559319</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
         <v>12</v>
       </c>
-      <c r="E38">
-        <v>7.143784925559319</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>11</v>
-      </c>
       <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>85</v>
+      </c>
+      <c r="J38">
         <v>12</v>
-      </c>
-      <c r="I38">
-        <v>15</v>
-      </c>
-      <c r="J38">
-        <v>85</v>
       </c>
       <c r="L38">
         <v>162</v>
@@ -2786,25 +2785,25 @@
         <v>85.94444444444444</v>
       </c>
       <c r="N38">
-        <v>86</v>
+        <v>2.442506603740668</v>
       </c>
       <c r="O38">
-        <v>2.442506603740668</v>
+        <v>80</v>
       </c>
       <c r="P38">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q38">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S38">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T38">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2818,25 +2817,25 @@
         <v>28</v>
       </c>
       <c r="D39">
+        <v>16.97056274847714</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>22</v>
+      </c>
+      <c r="G39">
         <v>28</v>
       </c>
-      <c r="E39">
-        <v>16.97056274847714</v>
-      </c>
-      <c r="F39">
-        <v>16</v>
-      </c>
-      <c r="G39">
-        <v>22</v>
-      </c>
       <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39">
+        <v>40</v>
+      </c>
+      <c r="J39">
         <v>28</v>
-      </c>
-      <c r="I39">
-        <v>34</v>
-      </c>
-      <c r="J39">
-        <v>40</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2845,25 +2844,25 @@
         <v>86.5</v>
       </c>
       <c r="N39">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="O39">
+        <v>86</v>
+      </c>
+      <c r="P39">
+        <v>86.25</v>
+      </c>
+      <c r="Q39">
         <v>86.5</v>
       </c>
-      <c r="O39">
-        <v>0.7071067811865476</v>
-      </c>
-      <c r="P39">
-        <v>86</v>
-      </c>
-      <c r="Q39">
-        <v>86.25</v>
-      </c>
       <c r="R39">
+        <v>86.75</v>
+      </c>
+      <c r="S39">
+        <v>87</v>
+      </c>
+      <c r="T39">
         <v>86.5</v>
-      </c>
-      <c r="S39">
-        <v>86.75</v>
-      </c>
-      <c r="T39">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2877,10 +2876,10 @@
         <v>11.6</v>
       </c>
       <c r="D40">
+        <v>1.341640786499874</v>
+      </c>
+      <c r="E40">
         <v>11</v>
-      </c>
-      <c r="E40">
-        <v>1.341640786499874</v>
       </c>
       <c r="F40">
         <v>11</v>
@@ -2892,10 +2891,10 @@
         <v>11</v>
       </c>
       <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40">
         <v>11</v>
-      </c>
-      <c r="J40">
-        <v>14</v>
       </c>
       <c r="L40">
         <v>5</v>
@@ -2904,25 +2903,25 @@
         <v>84</v>
       </c>
       <c r="N40">
-        <v>85</v>
+        <v>1.870828693386971</v>
       </c>
       <c r="O40">
-        <v>1.870828693386971</v>
+        <v>82</v>
       </c>
       <c r="P40">
         <v>82</v>
       </c>
       <c r="Q40">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R40">
         <v>85</v>
       </c>
       <c r="S40">
+        <v>86</v>
+      </c>
+      <c r="T40">
         <v>85</v>
-      </c>
-      <c r="T40">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2936,25 +2935,25 @@
         <v>19.5</v>
       </c>
       <c r="D41">
+        <v>7.778174593052023</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>16.75</v>
+      </c>
+      <c r="G41">
         <v>19.5</v>
       </c>
-      <c r="E41">
-        <v>7.778174593052023</v>
-      </c>
-      <c r="F41">
-        <v>14</v>
-      </c>
-      <c r="G41">
-        <v>16.75</v>
-      </c>
       <c r="H41">
+        <v>22.25</v>
+      </c>
+      <c r="I41">
+        <v>25</v>
+      </c>
+      <c r="J41">
         <v>19.5</v>
-      </c>
-      <c r="I41">
-        <v>22.25</v>
-      </c>
-      <c r="J41">
-        <v>25</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -2963,25 +2962,25 @@
         <v>88.5</v>
       </c>
       <c r="N41">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="O41">
+        <v>86</v>
+      </c>
+      <c r="P41">
+        <v>87.25</v>
+      </c>
+      <c r="Q41">
         <v>88.5</v>
       </c>
-      <c r="O41">
-        <v>3.535533905932738</v>
-      </c>
-      <c r="P41">
-        <v>86</v>
-      </c>
-      <c r="Q41">
-        <v>87.25</v>
-      </c>
       <c r="R41">
+        <v>89.75</v>
+      </c>
+      <c r="S41">
+        <v>91</v>
+      </c>
+      <c r="T41">
         <v>88.5</v>
-      </c>
-      <c r="S41">
-        <v>89.75</v>
-      </c>
-      <c r="T41">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2995,25 +2994,25 @@
         <v>25.34848484848485</v>
       </c>
       <c r="D42">
+        <v>16.19543375745382</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>15.25</v>
+      </c>
+      <c r="G42">
         <v>20</v>
       </c>
-      <c r="E42">
-        <v>16.19543375745382</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-      <c r="G42">
-        <v>15.25</v>
-      </c>
       <c r="H42">
+        <v>28</v>
+      </c>
+      <c r="I42">
+        <v>86</v>
+      </c>
+      <c r="J42">
         <v>20</v>
-      </c>
-      <c r="I42">
-        <v>28</v>
-      </c>
-      <c r="J42">
-        <v>86</v>
       </c>
       <c r="L42">
         <v>66</v>
@@ -3022,25 +3021,25 @@
         <v>87.18181818181819</v>
       </c>
       <c r="N42">
+        <v>2.410930818706214</v>
+      </c>
+      <c r="O42">
+        <v>82</v>
+      </c>
+      <c r="P42">
+        <v>85.25</v>
+      </c>
+      <c r="Q42">
         <v>87</v>
       </c>
-      <c r="O42">
-        <v>2.410930818706214</v>
-      </c>
-      <c r="P42">
-        <v>82</v>
-      </c>
-      <c r="Q42">
-        <v>85.25</v>
-      </c>
       <c r="R42">
+        <v>88.75</v>
+      </c>
+      <c r="S42">
+        <v>93</v>
+      </c>
+      <c r="T42">
         <v>87</v>
-      </c>
-      <c r="S42">
-        <v>88.75</v>
-      </c>
-      <c r="T42">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3054,25 +3053,25 @@
         <v>28.75</v>
       </c>
       <c r="D43">
+        <v>27.82534815595305</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>15.75</v>
+      </c>
+      <c r="G43">
         <v>18</v>
       </c>
-      <c r="E43">
-        <v>27.82534815595305</v>
-      </c>
-      <c r="F43">
-        <v>9</v>
-      </c>
-      <c r="G43">
-        <v>15.75</v>
-      </c>
       <c r="H43">
+        <v>31</v>
+      </c>
+      <c r="I43">
+        <v>70</v>
+      </c>
+      <c r="J43">
         <v>18</v>
-      </c>
-      <c r="I43">
-        <v>31</v>
-      </c>
-      <c r="J43">
-        <v>70</v>
       </c>
       <c r="L43">
         <v>4</v>
@@ -3081,25 +3080,25 @@
         <v>86.75</v>
       </c>
       <c r="N43">
-        <v>86</v>
+        <v>3.095695936834452</v>
       </c>
       <c r="O43">
-        <v>3.095695936834452</v>
+        <v>84</v>
       </c>
       <c r="P43">
-        <v>84</v>
+        <v>84.75</v>
       </c>
       <c r="Q43">
-        <v>84.75</v>
+        <v>86</v>
       </c>
       <c r="R43">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S43">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T43">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3113,25 +3112,25 @@
         <v>77.5</v>
       </c>
       <c r="D44">
+        <v>29.28310092869264</v>
+      </c>
+      <c r="E44">
+        <v>35</v>
+      </c>
+      <c r="F44">
+        <v>57.5</v>
+      </c>
+      <c r="G44">
         <v>95</v>
-      </c>
-      <c r="E44">
-        <v>29.28310092869264</v>
-      </c>
-      <c r="F44">
-        <v>35</v>
-      </c>
-      <c r="G44">
-        <v>57.5</v>
       </c>
       <c r="H44">
         <v>95</v>
       </c>
       <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
         <v>95</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
       </c>
       <c r="L44">
         <v>6</v>
@@ -3140,25 +3139,25 @@
         <v>91.5</v>
       </c>
       <c r="N44">
+        <v>1.51657508881031</v>
+      </c>
+      <c r="O44">
+        <v>89</v>
+      </c>
+      <c r="P44">
+        <v>91</v>
+      </c>
+      <c r="Q44">
         <v>91.5</v>
       </c>
-      <c r="O44">
-        <v>1.51657508881031</v>
-      </c>
-      <c r="P44">
-        <v>89</v>
-      </c>
-      <c r="Q44">
-        <v>91</v>
-      </c>
       <c r="R44">
+        <v>92.75</v>
+      </c>
+      <c r="S44">
+        <v>93</v>
+      </c>
+      <c r="T44">
         <v>91.5</v>
-      </c>
-      <c r="S44">
-        <v>92.75</v>
-      </c>
-      <c r="T44">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/02-output/wine_country_stats/Q2E_Chile.xlsx
+++ b/02-output/wine_country_stats/Q2E_Chile.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Statistic</t>
   </si>
   <si>
-    <t>Chile price price</t>
-  </si>
-  <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>Chile points points</t>
+    <t>Chile_priceprice</t>
+  </si>
+  <si>
+    <t>Chile_pointspoints</t>
   </si>
   <si>
     <t>Count</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -419,12 +416,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,95 +429,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>4391</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>4391</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>20.77362787519927</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>86.50626281029378</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>21.96136069505076</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2.692585693321728</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>400</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>95</v>
       </c>
     </row>
